--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3326.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3326.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8560809773431045</v>
+        <v>1.885218501091003</v>
       </c>
       <c r="B1">
-        <v>1.204609163019254</v>
+        <v>4.779308319091797</v>
       </c>
       <c r="C1">
-        <v>2.210814803568764</v>
+        <v>3.601540088653564</v>
       </c>
       <c r="D1">
-        <v>8.035016279368719</v>
+        <v>0.9005609750747681</v>
       </c>
       <c r="E1">
-        <v>2.303324700760336</v>
+        <v>0.4729504883289337</v>
       </c>
     </row>
   </sheetData>
